--- a/data/trans_camb/BARTHEL_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>12.78080294878609</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>25.80395927000174</v>
+        <v>25.80395927000173</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.748979386250713</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7635061096644336</v>
+        <v>1.199422404246397</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.297696273764383</v>
+        <v>1.163136470311723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.280516589459817</v>
+        <v>9.357601730583717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.704771889570238</v>
+        <v>6.26245845155433</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.262089156662958</v>
+        <v>7.501064982875493</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.47531603892827</v>
+        <v>21.29960165603196</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.908041523966986</v>
+        <v>5.733653795950238</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.151351692641594</v>
+        <v>6.578710539894855</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.69785445666189</v>
+        <v>18.59559557529546</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.92611905386378</v>
+        <v>11.90542547962505</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.65184109362997</v>
+        <v>11.88677766210216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.39488332652112</v>
+        <v>20.36505320437672</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.00007836844985</v>
+        <v>16.89775476004037</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.75123912334819</v>
+        <v>18.8075590572124</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>30.76922444953114</v>
+        <v>30.97023946186763</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.5406247781568</v>
+        <v>13.10188826664901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.21758089371342</v>
+        <v>14.52665746008435</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>26.16020580959333</v>
+        <v>26.00046759072098</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5971952077863556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.205714608049957</v>
+        <v>1.205714608049956</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5155004127319339</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.03169555727180821</v>
+        <v>0.0659178160062218</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06068004014859325</v>
+        <v>0.06230513712245254</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4949492476553803</v>
+        <v>0.5479078530133744</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2726686102743133</v>
+        <v>0.263612158713522</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2878919251068388</v>
+        <v>0.3195488923241561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8841259131061004</v>
+        <v>0.8699392425198278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2869525836583966</v>
+        <v>0.2790400676312728</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2932537212135671</v>
+        <v>0.3121185873491818</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8754421977902469</v>
+        <v>0.8840960131670421</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9137091232975433</v>
+        <v>0.9852584590250484</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9099660761587334</v>
+        <v>0.9774432298239549</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.619582522919765</v>
+        <v>1.686592841473037</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8898810838431305</v>
+        <v>0.9085992748398147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9484008187687765</v>
+        <v>1.005637849825049</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.66286337392777</v>
+        <v>1.726330553424017</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7905877116822795</v>
+        <v>0.7735295304582088</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8148029555440759</v>
+        <v>0.8461099992668958</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.543579385066744</v>
+        <v>1.542428091197895</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.542096774936275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.138941444911731</v>
+        <v>8.138941444911737</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.936618295461605</v>
@@ -878,7 +878,7 @@
         <v>6.625790854177442</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.932167309309479</v>
+        <v>9.932167309309483</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.883622221683128</v>
+        <v>-4.63744597579559</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.658001480624321</v>
+        <v>-5.876300788885121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.228331410221291</v>
+        <v>0.5368467756914745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.920107872027212</v>
+        <v>-6.404838714983331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.364218407972148</v>
+        <v>-1.209261002588294</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2930049914185082</v>
+        <v>0.8421574913102142</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.183116100773995</v>
+        <v>-2.272525689429763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1674994319911334</v>
+        <v>-0.1222707301880056</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.447253821604937</v>
+        <v>3.705626999632726</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.17203422544165</v>
+        <v>11.46321754896522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.555027207673784</v>
+        <v>7.895552835444314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.07878999136849</v>
+        <v>13.65103828957233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.22352833145423</v>
+        <v>18.74365217428035</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>21.17471507222718</v>
+        <v>21.48646958258229</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.18273808572089</v>
+        <v>19.95675442662138</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.23363695696302</v>
+        <v>11.96999740218311</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.14606545811607</v>
+        <v>12.79794796539817</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.66820404914123</v>
+        <v>14.77303893428331</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4684504909618079</v>
+        <v>-0.4893802261558876</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4918701215328712</v>
+        <v>-0.4854940484234742</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03484230365392236</v>
+        <v>0.01849689233264718</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3646210444247153</v>
+        <v>-0.3583612185803064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1057143255288856</v>
+        <v>-0.1428431988873624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.004096357385866688</v>
+        <v>0.02988303280056753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1680705544411689</v>
+        <v>-0.1848551166842004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02002888542409558</v>
+        <v>-0.07595138205520102</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2226774827730953</v>
+        <v>0.2368257188784129</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.292239935802532</v>
+        <v>2.654798663430707</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.782007289434351</v>
+        <v>2.008465744010143</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.707693358423643</v>
+        <v>3.206710708167634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.189275354845</v>
+        <v>3.203229802088526</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.489893304331301</v>
+        <v>3.171020338033347</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.362112060191781</v>
+        <v>3.93226923081257</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.046281833225448</v>
+        <v>1.797250827779708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.955932232419054</v>
+        <v>1.971800364248097</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.290985573444478</v>
+        <v>2.479957258122189</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.46164414808397</v>
+        <v>-16.84475459897154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.13984428248313</v>
+        <v>-12.69576763500037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.90353942872513</v>
+        <v>-13.84508278921724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.32279429379607</v>
+        <v>-17.22831008042702</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.75163424118564</v>
+        <v>-15.56844794072822</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.70650995805391</v>
+        <v>-17.52580469071167</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-11.02177789438699</v>
+        <v>-13.1104396639153</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.114916445741967</v>
+        <v>-9.076543962016169</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.158284108072502</v>
+        <v>-9.18194039415301</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.59037264571525</v>
+        <v>12.62238865468988</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.89938440280952</v>
+        <v>20.04147071846092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.84923726864282</v>
+        <v>11.99519105090026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28.33210901259676</v>
+        <v>28.87995553623479</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>23.23477418404352</v>
+        <v>24.42527563853544</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.55428514461121</v>
+        <v>14.10790254229893</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.89705177576859</v>
+        <v>14.81356043175924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.56161394345084</v>
+        <v>15.62366314340953</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.60363568035834</v>
+        <v>10.581269762752</v>
       </c>
     </row>
     <row r="19">
@@ -1209,28 +1209,28 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.8342072654431155</v>
+        <v>-0.8618111064744984</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.601414159856433</v>
+        <v>-0.6485406760780466</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7654945654698275</v>
+        <v>-0.7855048088027157</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7549098485914727</v>
+        <v>-0.6678831892851015</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5425726436565327</v>
+        <v>-0.5487406708418647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6901385481922022</v>
+        <v>-0.7469597161919799</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5518961269098337</v>
+        <v>-0.5433411398273015</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4136713239721176</v>
+        <v>-0.4359783371878458</v>
       </c>
     </row>
     <row r="21">
@@ -1241,27 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>8.211930377522677</v>
+      </c>
       <c r="E21" s="6" t="n">
-        <v>4.469204223112926</v>
+        <v>4.801944549690647</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.042067846901674</v>
+        <v>5.552482638103395</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.832481596639773</v>
+        <v>5.774528980091511</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.142712999610942</v>
+        <v>2.862921927410385</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.286792665495781</v>
+        <v>2.120414233446457</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.614351824384625</v>
+        <v>2.429469087726567</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.943091779428174</v>
+        <v>1.832575601077353</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1302,7 @@
         <v>7.594331894682771</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>12.74877399693364</v>
+        <v>12.74877399693363</v>
       </c>
     </row>
     <row r="23">
@@ -1311,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7830134942242127</v>
+        <v>0.9987173779759291</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6169660663821583</v>
+        <v>0.184315868606293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.009105847421086</v>
+        <v>4.218293521847444</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.736737627982138</v>
+        <v>5.849301794784306</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.160942567977935</v>
+        <v>5.7996658704562</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.92541007254503</v>
+        <v>12.9825162669147</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.569551114459679</v>
+        <v>5.209796783505056</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.46448236080658</v>
+        <v>4.05205804788651</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>9.552562910256553</v>
+        <v>9.928336950551431</v>
       </c>
     </row>
     <row r="24">
@@ -1346,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.905708556410572</v>
+        <v>10.15321796277393</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.849493998085835</v>
+        <v>8.232172699190473</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.69253982348007</v>
+        <v>11.96186839000109</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.39851334325746</v>
+        <v>15.64564960257897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.41325278118668</v>
+        <v>15.625012361821</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.58056830987844</v>
+        <v>21.03525401695946</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.19117561901648</v>
+        <v>12.04864970760078</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.73727113142675</v>
+        <v>10.66825174146284</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.25346540956569</v>
+        <v>15.56274915770558</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1407,7 @@
         <v>0.4370568642597119</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7336970866596979</v>
+        <v>0.7336970866596972</v>
       </c>
     </row>
     <row r="26">
@@ -1416,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05492493365374707</v>
+        <v>0.06606523762516914</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04235616662251386</v>
+        <v>0.006698914117129175</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2569267873525186</v>
+        <v>0.273601581992032</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2643143284788211</v>
+        <v>0.2542625519179427</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2799715454949471</v>
+        <v>0.2404759642088088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5604245508213404</v>
+        <v>0.5422896184637295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.293903477082289</v>
+        <v>0.2696260676804024</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2354342087640142</v>
+        <v>0.2101723260934993</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5045638062230116</v>
+        <v>0.5075799978912819</v>
       </c>
     </row>
     <row r="27">
@@ -1451,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9111013992348731</v>
+        <v>0.9043633181933244</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6978063260110225</v>
+        <v>0.7075918585461081</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.057577392075198</v>
+        <v>1.085377132373216</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8510917341311021</v>
+        <v>0.8782660758103472</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8522477432435348</v>
+        <v>0.8569604805560563</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.137336527773166</v>
+        <v>1.211482605536431</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7589016065705204</v>
+        <v>0.7749583411557014</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6734782757256201</v>
+        <v>0.6787802607047519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9778360009025823</v>
+        <v>0.9964659795009513</v>
       </c>
     </row>
     <row r="28">
